--- a/Java/Results/Analysis/Correlation Analysis/100pairsCorrelationAnalysis.xlsx
+++ b/Java/Results/Analysis/Correlation Analysis/100pairsCorrelationAnalysis.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/shamsaabid_smu_edu_sg/Documents/XAI_CodeBERT_SCB_GitHub/ExplainingCodeBERTforSemanticClones/Java/Results/Analysis/Correlation Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{E776FDA1-DD92-4623-9BCB-E18C5291B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C80E85-DB92-4123-818A-3C04EDE45692}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{E776FDA1-DD92-4623-9BCB-E18C5291B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89351471-5486-4F55-A6A3-60ACCBCA6170}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1374667B-12F3-419F-8C9A-76B24F41A72F}"/>
   </bookViews>
   <sheets>
     <sheet name="human shap m1" sheetId="1" r:id="rId1"/>
     <sheet name="human shap m2" sheetId="2" r:id="rId2"/>
-    <sheet name="human wheat m1" sheetId="3" r:id="rId3"/>
-    <sheet name="human wheat m2" sheetId="4" r:id="rId4"/>
-    <sheet name="human culprit m1" sheetId="5" r:id="rId5"/>
-    <sheet name="human culprit m2" sheetId="6" r:id="rId6"/>
-    <sheet name="counts" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'human culprit m1'!$D$2:$D$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'human culprit m2'!$G$1:$K$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'human shap m1'!$D$2:$D$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'human shap m2'!$D$2:$D$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'human wheat m1'!$D$2:$D$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'human wheat m2'!$D$2:$D$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="109">
   <si>
     <t>Clone0</t>
   </si>
@@ -439,6 +430,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4141,3903 +4136,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ED24DF-52A6-4199-BB2E-0C357D88322C}">
-  <dimension ref="A1:E52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>-0.20851439999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.62021994999999996</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-0.14907119999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.72460480000000005</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>-0.3721042</v>
-      </c>
-      <c r="C4">
-        <v>0.28967222999999998</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.13130644</v>
-      </c>
-      <c r="C5">
-        <v>0.80417229999999995</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>-0.93541439999999998</v>
-      </c>
-      <c r="C6">
-        <v>1.9660732000000001E-3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>-0.47140451999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.28559095000000001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>-0.5</v>
-      </c>
-      <c r="C8">
-        <v>0.17047065</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.3786200999999999E-17</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>-0.39528469999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.292352</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>-0.27216553999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.44681334</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>-0.15617376999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.66658110000000004</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>0.44721359999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.37390097999999999</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>-0.74535596000000004</v>
-      </c>
-      <c r="C14">
-        <v>3.3797786000000003E-2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>-0.63245549999999995</v>
-      </c>
-      <c r="C15">
-        <v>0.17780781000000001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>-0.10846523</v>
-      </c>
-      <c r="C16">
-        <v>0.83794020000000002</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-0.35675301999999998</v>
-      </c>
-      <c r="C17">
-        <v>0.38567716000000002</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>-0.53452250000000001</v>
-      </c>
-      <c r="C18">
-        <v>0.1723083</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>0.37796447</v>
-      </c>
-      <c r="C19">
-        <v>0.3559177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>-0.11111111</v>
-      </c>
-      <c r="C20">
-        <v>0.75992300000000002</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>6.6666669999999997E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.87536985</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>-0.25819890000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.57613170000000002</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>-0.76376259999999996</v>
-      </c>
-      <c r="C23">
-        <v>1.0130721000000001E-2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>-1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-4.2076567000000002E-17</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>0.34188172</v>
-      </c>
-      <c r="C26">
-        <v>0.40717049999999999</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27">
-        <v>-1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28">
-        <v>-0.3</v>
-      </c>
-      <c r="C28">
-        <v>0.51330969999999998</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29">
-        <v>-0.18898223</v>
-      </c>
-      <c r="C29">
-        <v>0.62628329999999999</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30">
-        <v>-0.29277003000000001</v>
-      </c>
-      <c r="C30">
-        <v>0.48161779999999998</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31">
-        <v>-0.31622776000000002</v>
-      </c>
-      <c r="C31">
-        <v>0.54146974999999997</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32">
-        <v>0.15617376999999999</v>
-      </c>
-      <c r="C32">
-        <v>0.66658110000000004</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
-        <v>-9.1287090000000001E-2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.84567110000000001</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34">
-        <v>0.61237246000000001</v>
-      </c>
-      <c r="C34">
-        <v>0.27222839999999998</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35">
-        <v>0.26726124000000001</v>
-      </c>
-      <c r="C35">
-        <v>0.48691543999999998</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36">
-        <v>-0.35355337999999997</v>
-      </c>
-      <c r="C36">
-        <v>0.35061666000000002</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37">
-        <v>0.2</v>
-      </c>
-      <c r="C37">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38">
-        <v>0.125</v>
-      </c>
-      <c r="C38">
-        <v>0.74864452999999997</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39">
-        <v>-0.13363062000000001</v>
-      </c>
-      <c r="C39">
-        <v>0.73178849999999995</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40">
-        <v>0.40824830000000001</v>
-      </c>
-      <c r="C40">
-        <v>0.24150397000000001</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41">
-        <v>-0.89442719999999998</v>
-      </c>
-      <c r="C41">
-        <v>2.7136820999999998E-3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42">
-        <v>-1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2.49448E-40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43">
-        <v>-0.33333333999999998</v>
-      </c>
-      <c r="C43">
-        <v>0.3465935</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44">
-        <v>0.20365327999999999</v>
-      </c>
-      <c r="C44">
-        <v>0.62857680000000005</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45">
-        <v>-0.14907119999999999</v>
-      </c>
-      <c r="C45">
-        <v>0.72460480000000005</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46">
-        <v>-0.57735026</v>
-      </c>
-      <c r="C46">
-        <v>0.1339746</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47">
-        <v>0.21821789999999999</v>
-      </c>
-      <c r="C47">
-        <v>0.54473729999999998</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48">
-        <v>0.11111111</v>
-      </c>
-      <c r="C48">
-        <v>0.75992300000000002</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49">
-        <v>-0.57353929999999997</v>
-      </c>
-      <c r="C49">
-        <v>0.10639229</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50">
-        <v>-0.50917506000000001</v>
-      </c>
-      <c r="C50">
-        <v>0.13280109000000001</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51">
-        <v>0.23622779999999999</v>
-      </c>
-      <c r="C51">
-        <v>0.54058150000000005</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52">
-        <v>0.16666666999999999</v>
-      </c>
-      <c r="C52">
-        <v>0.64537630000000001</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C157DC7A-39FC-4998-8A27-F36B5A033021}">
-  <dimension ref="A1:E53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>-0.36440545000000002</v>
-      </c>
-      <c r="C2">
-        <v>0.3005488</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.59603952999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.1578388</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.32025629999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.4837629</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>-0.375</v>
-      </c>
-      <c r="C5">
-        <v>0.53397450000000002</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>-0.21821789999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.60364510000000005</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>-0.16666666999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.72097120000000003</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.4470642999999999E-18</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>0.15617376999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.66658110000000004</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>-0.11111111</v>
-      </c>
-      <c r="C11">
-        <v>0.75992300000000002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>0.39528469999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.292352</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>-0.16666666999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.72097120000000003</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>-0.125</v>
-      </c>
-      <c r="C14">
-        <v>0.74864452999999997</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>-0.31622776000000002</v>
-      </c>
-      <c r="C15">
-        <v>0.54146974999999997</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>-0.17677668999999999</v>
-      </c>
-      <c r="C16">
-        <v>0.64912040000000004</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>0.26726124000000001</v>
-      </c>
-      <c r="C17">
-        <v>0.52223646999999995</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>0.27216553999999998</v>
-      </c>
-      <c r="C18">
-        <v>0.44681334</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>0.44721359999999999</v>
-      </c>
-      <c r="C19">
-        <v>0.37390097999999999</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>-0.14285714999999999</v>
-      </c>
-      <c r="C20">
-        <v>0.73576485999999997</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>-0.35355337999999997</v>
-      </c>
-      <c r="C21">
-        <v>0.43658805000000001</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>-0.31622776000000002</v>
-      </c>
-      <c r="C22">
-        <v>0.54146974999999997</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>-0.14285714999999999</v>
-      </c>
-      <c r="C23">
-        <v>0.73576485999999997</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>-0.25819890000000001</v>
-      </c>
-      <c r="C24">
-        <v>0.57613170000000002</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25">
-        <v>-0.14285714999999999</v>
-      </c>
-      <c r="C25">
-        <v>0.73576485999999997</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>0.34188172</v>
-      </c>
-      <c r="C26">
-        <v>0.40717049999999999</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27">
-        <v>0.13363062000000001</v>
-      </c>
-      <c r="C27">
-        <v>0.83036390000000004</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28">
-        <v>-0.40824830000000001</v>
-      </c>
-      <c r="C28">
-        <v>0.49502533999999998</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29">
-        <v>0.31622776000000002</v>
-      </c>
-      <c r="C29">
-        <v>0.54146974999999997</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30">
-        <v>0.58131840000000001</v>
-      </c>
-      <c r="C30">
-        <v>0.22624522</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31">
-        <v>-0.44721359999999999</v>
-      </c>
-      <c r="C31">
-        <v>0.37390097999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32">
-        <v>0.50952463999999997</v>
-      </c>
-      <c r="C32">
-        <v>0.24276800000000001</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
-        <v>0.38254603999999998</v>
-      </c>
-      <c r="C33">
-        <v>0.27526390000000001</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34">
-        <v>-0.86824316000000001</v>
-      </c>
-      <c r="C34">
-        <v>5.1680349999999996E-3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35">
-        <v>0.20365327999999999</v>
-      </c>
-      <c r="C35">
-        <v>0.62857680000000005</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36">
-        <v>-0.16666666999999999</v>
-      </c>
-      <c r="C36">
-        <v>0.72097120000000003</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37">
-        <v>-0.64549719999999999</v>
-      </c>
-      <c r="C37">
-        <v>0.117386796</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38">
-        <v>-0.29277003000000001</v>
-      </c>
-      <c r="C38">
-        <v>0.57339229999999997</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39">
-        <v>-0.92582010000000003</v>
-      </c>
-      <c r="C39">
-        <v>8.0498930000000007E-3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40">
-        <v>-0.25819890000000001</v>
-      </c>
-      <c r="C40">
-        <v>0.57613170000000002</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41">
-        <v>-0.16666666999999999</v>
-      </c>
-      <c r="C41">
-        <v>0.72097120000000003</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42">
-        <v>0.51298916000000006</v>
-      </c>
-      <c r="C42">
-        <v>0.23903447</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43">
-        <v>-0.2</v>
-      </c>
-      <c r="C43">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44">
-        <v>0.15617376999999999</v>
-      </c>
-      <c r="C44">
-        <v>0.66658110000000004</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45">
-        <v>0.25</v>
-      </c>
-      <c r="C45">
-        <v>0.51648956999999995</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46">
-        <v>0.21821789999999999</v>
-      </c>
-      <c r="C46">
-        <v>0.54473729999999998</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47">
-        <v>0.63245549999999995</v>
-      </c>
-      <c r="C47">
-        <v>0.17780781000000001</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48">
-        <v>0.61237246000000001</v>
-      </c>
-      <c r="C48">
-        <v>0.27222839999999998</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49">
-        <v>-0.11111111</v>
-      </c>
-      <c r="C49">
-        <v>0.75992300000000002</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50">
-        <v>-0.14285714999999999</v>
-      </c>
-      <c r="C50">
-        <v>0.73576485999999997</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51">
-        <v>-0.50917506000000001</v>
-      </c>
-      <c r="C51">
-        <v>0.13280109000000001</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52">
-        <v>-0.65465366999999997</v>
-      </c>
-      <c r="C52">
-        <v>7.8140749999999995E-2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53">
-        <v>-0.50917506000000001</v>
-      </c>
-      <c r="C53">
-        <v>0.13280109000000001</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DEFADD-2FAF-4B7C-B826-866CA2123109}">
-  <dimension ref="A1:E39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-0.34188172</v>
-      </c>
-      <c r="C2">
-        <v>0.40717049999999999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.63245549999999995</v>
-      </c>
-      <c r="C3">
-        <v>0.17780781000000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>-9.1287090000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.84567110000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>-0.44721359999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.37390097999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.30151135000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.39720382999999998</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0.40824830000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.24150397000000001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>-0.2</v>
-      </c>
-      <c r="C8">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>0.14285714999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.73576485999999997</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <v>0.35675301999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.38567716000000002</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>-0.41522740000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.41295436000000002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>-0.37796447</v>
-      </c>
-      <c r="C12">
-        <v>0.3559177</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>-0.80403024000000001</v>
-      </c>
-      <c r="C13">
-        <v>5.0556109999999998E-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>-0.14285714999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.73576485999999997</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>-0.24019223000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.60389689999999996</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16">
-        <v>-0.24019223000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.60389689999999996</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>-0.63245549999999995</v>
-      </c>
-      <c r="C17">
-        <v>0.17780781000000001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18">
-        <v>-0.20365327999999999</v>
-      </c>
-      <c r="C18">
-        <v>0.62857680000000005</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>-1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20">
-        <v>0.35355337999999997</v>
-      </c>
-      <c r="C20">
-        <v>0.43658805000000001</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <v>-0.62017370000000005</v>
-      </c>
-      <c r="C21">
-        <v>5.5766530000000002E-2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>0.32025629999999999</v>
-      </c>
-      <c r="C22">
-        <v>0.4837629</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23">
-        <v>-0.14907119999999999</v>
-      </c>
-      <c r="C23">
-        <v>0.72460480000000005</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24">
-        <v>-1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25">
-        <v>0.27565894000000002</v>
-      </c>
-      <c r="C25">
-        <v>0.50872605999999998</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26">
-        <v>-0.65465366999999997</v>
-      </c>
-      <c r="C26">
-        <v>7.8140749999999995E-2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27">
-        <v>-0.2</v>
-      </c>
-      <c r="C27">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28">
-        <v>-0.35355337999999997</v>
-      </c>
-      <c r="C28">
-        <v>0.43658805000000001</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29">
-        <v>-0.35355337999999997</v>
-      </c>
-      <c r="C29">
-        <v>0.43658805000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30">
-        <v>-0.80178373999999997</v>
-      </c>
-      <c r="C30">
-        <v>1.6689984000000001E-2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31">
-        <v>0.35355337999999997</v>
-      </c>
-      <c r="C31">
-        <v>0.35061666000000002</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32">
-        <v>0.22941573000000001</v>
-      </c>
-      <c r="C32">
-        <v>0.55265399999999998</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33">
-        <v>-0.2</v>
-      </c>
-      <c r="C33">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34">
-        <v>-0.2</v>
-      </c>
-      <c r="C34">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35">
-        <v>-0.14285714999999999</v>
-      </c>
-      <c r="C35">
-        <v>0.73576485999999997</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36">
-        <v>0.17407766</v>
-      </c>
-      <c r="C36">
-        <v>0.82592237000000002</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37">
-        <v>-0.28676965999999998</v>
-      </c>
-      <c r="C37">
-        <v>0.45436648000000002</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38">
-        <v>-0.64549719999999999</v>
-      </c>
-      <c r="C38">
-        <v>0.117386796</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39">
-        <v>-0.35355337999999997</v>
-      </c>
-      <c r="C39">
-        <v>0.43658805000000001</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065F6EEB-41D8-41D9-B36B-04EA3E5BF9A7}">
-  <dimension ref="G1:K41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.11396058000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.7881667</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>-0.34188172</v>
-      </c>
-      <c r="I3">
-        <v>0.40717049999999999</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>0.48795002999999998</v>
-      </c>
-      <c r="I4">
-        <v>0.15250227999999999</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0.35355337999999997</v>
-      </c>
-      <c r="I5">
-        <v>0.43658805000000001</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>0.18257418</v>
-      </c>
-      <c r="I6">
-        <v>0.66520460000000003</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>0.26318067000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.46253826999999997</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>0.60858064999999995</v>
-      </c>
-      <c r="I8">
-        <v>6.1885558E-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>0.48795002999999998</v>
-      </c>
-      <c r="I9">
-        <v>0.15250227999999999</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>0.33333333999999998</v>
-      </c>
-      <c r="I10">
-        <v>0.51851849999999999</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>-0.12156612999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.73796930000000005</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12">
-        <v>-6.1898448000000002E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.86511475000000004</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13">
-        <v>-0.29277003000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.48161779999999998</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14">
-        <v>-0.25</v>
-      </c>
-      <c r="I14">
-        <v>0.68503760000000002</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15">
-        <v>-0.39528469999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.292352</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16">
-        <v>-0.21821789999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.60364510000000005</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17">
-        <v>-0.25819890000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.57613170000000002</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18">
-        <v>-0.16666666999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.72097120000000003</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>0.24845200000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.48883566000000001</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20">
-        <v>-0.47140451999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.28559095000000001</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21">
-        <v>-0.12309149</v>
-      </c>
-      <c r="I21">
-        <v>0.73478012999999998</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22">
-        <v>-0.53452250000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.13817995999999999</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23">
-        <v>-0.16666666999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.72097120000000003</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24">
-        <v>0.23426064999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.51476294</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25">
-        <v>-0.23622779999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.54058150000000005</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26">
-        <v>0.16666666999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.64537630000000001</v>
-      </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27">
-        <v>0.40824830000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.24150397000000001</v>
-      </c>
-      <c r="J27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28">
-        <v>0.31622776000000002</v>
-      </c>
-      <c r="I28">
-        <v>0.54146974999999997</v>
-      </c>
-      <c r="J28" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29">
-        <v>0.61237246000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.27222839999999998</v>
-      </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30">
-        <v>6.0522753999999998E-2</v>
-      </c>
-      <c r="I30">
-        <v>0.88679664999999996</v>
-      </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31">
-        <v>-0.26726124000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.52223646999999995</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32">
-        <v>0.33113310000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.46815684000000002</v>
-      </c>
-      <c r="J32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33">
-        <v>0.25819890000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.57613170000000002</v>
-      </c>
-      <c r="J33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34">
-        <v>-0.2</v>
-      </c>
-      <c r="I34">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35">
-        <v>0.87831009999999998</v>
-      </c>
-      <c r="I35">
-        <v>2.131164E-2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G36" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36">
-        <v>0.57735026</v>
-      </c>
-      <c r="I36">
-        <v>0.42264974</v>
-      </c>
-      <c r="J36" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37">
-        <v>0.57735026</v>
-      </c>
-      <c r="I37">
-        <v>0.42264974</v>
-      </c>
-      <c r="J37" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38">
-        <v>-0.2</v>
-      </c>
-      <c r="I38">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39">
-        <v>-0.54006169999999998</v>
-      </c>
-      <c r="I39">
-        <v>0.21079576</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41">
-        <v>9.1287090000000001E-2</v>
-      </c>
-      <c r="I41">
-        <v>0.84567110000000001</v>
-      </c>
-      <c r="J41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E381CD-CDDA-45A3-85DB-D4434DACA6FB}">
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="M36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="M40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8047,6 +4145,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100825A397331FBC94CBBA1836997606CCB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d47848939384e1735a2391b84aa24d97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ae7d972-b0d8-4368-9da9-060f135f8141" xmlns:ns3="add1c7a3-183b-4e53-8cc5-7b48eb01f20e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdee2c1dded89851064a2b694327bbca" ns2:_="" ns3:_="">
     <xsd:import namespace="9ae7d972-b0d8-4368-9da9-060f135f8141"/>
@@ -8263,15 +4370,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78D5A691-090B-4572-8CD4-B9DD076EAACB}">
   <ds:schemaRefs>
@@ -8283,6 +4381,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8DD887-65F0-4AB6-9DB1-95C65E8F060C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05F41BDA-45B4-4C9F-BACA-1C7F527A3538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8299,12 +4405,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8DD887-65F0-4AB6-9DB1-95C65E8F060C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>